--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edu/PycharmProjects/IA_final_project/new/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edu/PycharmProjects/IA_final_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730AE2C9-90E3-DA44-89E0-C547D271AB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C229A554-E24B-BE41-A38B-D7D3C7B29D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,9 +33,13 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -60,6 +64,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -165,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -183,6 +194,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,7 +416,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -655,6 +667,7 @@
       <c r="A12" s="4">
         <v>21</v>
       </c>
+      <c r="D12" s="17"/>
       <c r="K12" s="5">
         <v>0.1</v>
       </c>
